--- a/TestData/Production/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135" count="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -40,9 +45,6 @@
     <t>opening_balance</t>
   </si>
   <si>
-    <t>store_name</t>
-  </si>
-  <si>
     <t>promo_name</t>
   </si>
   <si>
@@ -100,81 +102,81 @@
     <t>Mode</t>
   </si>
   <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
+    <t>239060824n9Y</t>
+  </si>
+  <si>
+    <t>Zwingautomation78@gmail.com</t>
+  </si>
+  <si>
+    <t>Order_customer_tagging_U1_P1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>500 : 1</t>
+  </si>
+  <si>
+    <t>QBSB-any___qty-Flat-Percentage</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>239060824WOi</t>
+  </si>
+  <si>
+    <t>O_CT_user2_p10</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>QBSB-any___qty-flat-Amount</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>QBSB-any___qty-Flat-Fixed-Each</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>239060824Fbv</t>
+  </si>
+  <si>
     <t>Order_customer_tagging_U1_P9</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t>	</t>
-  </si>
-  <si>
-    <t>2000 : 1</t>
-  </si>
-  <si>
-    <t>500 : 1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Flat-Percentage</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>usertwop10 </t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-flat-Amount</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>239060824WOi</t>
-  </si>
-  <si>
-    <t>QBSB-any___qty-Flat-Fixed-Each</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>239060824Fbv</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>QBSB-any____qty-Flat-Fixed-All</t>
   </si>
   <si>
@@ -319,7 +321,7 @@
     <t>arunachalgst</t>
   </si>
   <si>
-    <t>12AAACB1534F1ZH </t>
+    <t xml:space="preserve">12AAACB1534F1ZH </t>
   </si>
   <si>
     <t>Pasighat</t>
@@ -352,7 +354,7 @@
     <t>QBSB-Any____Qty-get pool-spf-perc</t>
   </si>
   <si>
-    <t>30AAAAP0267H1Z1 </t>
+    <t xml:space="preserve">30AAAAP0267H1Z1 </t>
   </si>
   <si>
     <t>TC_25</t>
@@ -394,53 +396,33 @@
     <t>TC_29</t>
   </si>
   <si>
+    <t xml:space="preserve">Order_customer_tagging_U1_P1 </t>
+  </si>
+  <si>
     <t>QBSLB-flat-perc</t>
   </si>
   <si>
     <t>8906118410781 : 4</t>
-  </si>
-  <si>
-    <t>Order_customer_tagging_U1_P1 </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>admin@sunrise.com</t>
-  </si>
-  <si>
-    <t>Order_customer_tagging_U1_P1</t>
-  </si>
-  <si>
-    <t>usertwop10</t>
-  </si>
-  <si>
-    <t>Zwingautomation78@gmail.com</t>
-  </si>
-  <si>
-    <t>239060824n9Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,20 +433,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,48 +445,29 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
         <fgColor indexed="64"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -526,73 +480,62 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -952,36 +895,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:AB63"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="82" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" sqref="G2:H30"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.6796875" customWidth="1"/>
-    <col min="2" max="2" width="19.27734375" customWidth="1"/>
-    <col min="3" max="3" width="56.95703125" customWidth="1"/>
-    <col min="4" max="4" width="19.27734375" customWidth="1"/>
-    <col min="5" max="5" width="39.640625" customWidth="1"/>
-    <col min="6" max="6" width="14.8203125" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.09765625" customWidth="1"/>
-    <col min="10" max="10" width="39.640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="31.95703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="28.75" customWidth="1"/>
-    <col min="15" max="17" width="19.09765625" customWidth="1"/>
-    <col min="18" max="19" width="29.45703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.20703125" customWidth="1"/>
-    <col min="21" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="1025" width="12.6796875" customWidth="1"/>
+    <col min="1" max="1" width="12.67969" customWidth="1"/>
+    <col min="2" max="2" width="19.27734" customWidth="1"/>
+    <col min="3" max="3" width="56.95703" customWidth="1"/>
+    <col min="4" max="4" width="19.27734" customWidth="1"/>
+    <col min="5" max="5" width="39.64063" customWidth="1"/>
+    <col min="6" max="6" width="14.82031" customWidth="1"/>
+    <col min="7" max="7" width="16.77734" customWidth="1"/>
+    <col min="8" max="8" width="19.09766" customWidth="1"/>
+    <col min="9" max="9" width="39.64063" style="1" customWidth="1"/>
+    <col min="10" max="11" width="31.95703" style="1" customWidth="1"/>
+    <col min="12" max="13" width="28.75" customWidth="1"/>
+    <col min="14" max="16" width="19.09766" customWidth="1"/>
+    <col min="17" max="18" width="29.45703" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.20703" customWidth="1"/>
+    <col min="20" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="28.75" customWidth="1"/>
+    <col min="23" max="27" width="12.67969" customWidth="1"/>
+    <col min="28" max="28" width="12.67969" customWidth="1"/>
+    <col min="29" max="1024" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +949,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1015,7 +958,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1030,13 +973,13 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1051,2814 +994,2780 @@
       <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
       <c r="AB1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="33.75" customHeight="1">
+    <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8">
         <v>123456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O2" s="11">
-        <v>45386</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AB2">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8">
         <v>123456</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" s="11">
-        <v>45386</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="31.5" customHeight="1">
+      <c r="AB3">
+        <v>7896325874</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8">
         <v>123456</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>49</v>
+      <c r="I4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O4" s="11">
-        <v>45386</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="34.6" customHeight="1">
+      <c r="AB4">
+        <v>7896325874</v>
+      </c>
+    </row>
+    <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>1234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O5" s="11">
-        <v>45386</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5">
+        <v>411001</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5">
-        <v>411001</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5">
+        <v>5684569185</v>
+      </c>
+    </row>
+    <row r="6" ht="26.25" customHeight="1">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="26.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>1234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8">
         <v>123456</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O6" s="11">
-        <v>45386</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1">
+      <c r="AB6">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>1234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8">
         <v>123456</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>60</v>
+      <c r="I7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
         <v>2</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O7" s="11">
-        <v>45386</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="31.5" customHeight="1">
+      <c r="AB7">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>1234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
         <v>123456</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>62</v>
+      <c r="I8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
         <v>2</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O8" s="11">
-        <v>45386</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="32.25" customHeight="1">
+      <c r="AB8">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>1234</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>64</v>
+      <c r="I9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
         <v>2</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O9" s="11">
-        <v>45386</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="28.5" customHeight="1">
+      <c r="AB9">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>1234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>66</v>
+      <c r="I10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
         <v>2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O10" s="11">
-        <v>45386</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10">
+        <v>9876543212</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10">
-        <v>9876543212</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="54">
+      <c r="AB10">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>1234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>123456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>68</v>
+      <c r="I11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
         <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O11" s="11">
-        <v>45386</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="81">
+      <c r="AB11">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>1234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8">
         <v>123456</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O12" s="11">
-        <v>45386</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="60">
+      <c r="AB12">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>1234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8">
         <v>123456</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <v>1</v>
+      <c r="L13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O13" s="11">
-        <v>45386</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="3" t="s">
+      <c r="R13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13">
+        <v>411001</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s">
         <v>41</v>
       </c>
-      <c r="T13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="12" t="s">
+      <c r="AB13">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13">
-        <v>411001</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="48">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>1234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
         <v>123456</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O14" s="11">
-        <v>45386</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14">
+        <v>411001</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s">
         <v>41</v>
       </c>
-      <c r="T14" t="s">
+      <c r="AB14">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14">
-        <v>411001</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="48">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>1234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8">
         <v>123456</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O15" s="11">
-        <v>45386</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="13" t="s">
+      <c r="R15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15">
+        <v>9876543212</v>
+      </c>
+      <c r="X15">
+        <v>411001</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="T15" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15">
-        <v>9876543212</v>
-      </c>
-      <c r="Y15">
-        <v>411001</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="48">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>1234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O16" s="11">
-        <v>45386</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="3" t="s">
+      <c r="R16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16">
+        <v>9876543212</v>
+      </c>
+      <c r="X16">
+        <v>411001</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s">
         <v>41</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AB16">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
         <v>85</v>
       </c>
-      <c r="W16">
-        <v>9876543212</v>
-      </c>
-      <c r="Y16">
-        <v>411001</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="60">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>1234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>123456</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O17" s="11">
-        <v>45386</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="3" t="s">
+      <c r="R17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17">
+        <v>9876543212</v>
+      </c>
+      <c r="W17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
         <v>41</v>
       </c>
-      <c r="T17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17">
-        <v>9876543212</v>
-      </c>
-      <c r="X17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="48">
+      <c r="AB17">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>1234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8">
         <v>123456</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
         <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O18" s="11">
-        <v>45386</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="3" t="s">
+      <c r="R18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18">
+        <v>9876543212</v>
+      </c>
+      <c r="W18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s">
         <v>41</v>
       </c>
-      <c r="T18" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18">
-        <v>9876543212</v>
-      </c>
-      <c r="X18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="48">
+      <c r="AB18">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>1234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="1">
-        <v>1</v>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O19" s="11">
-        <v>45386</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="R19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" t="s">
         <v>92</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19">
+        <v>8149214985</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19">
+        <v>411001</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="W19">
-        <v>8149214985</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19">
-        <v>411001</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="48">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>1234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8">
         <v>123456</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O20" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O20" s="11">
-        <v>45386</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="13" t="s">
+      <c r="R20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" t="s">
         <v>96</v>
       </c>
-      <c r="T20" t="s">
-        <v>97</v>
+      <c r="T20" s="12">
+        <v>123456789876543</v>
       </c>
       <c r="U20" s="12">
         <v>123456789876543</v>
       </c>
-      <c r="V20" s="12">
-        <v>123456789876543</v>
-      </c>
-      <c r="W20">
+      <c r="V20">
         <v>8149214985</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="W20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <v>411001</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s">
         <v>41</v>
       </c>
-      <c r="Y20">
-        <v>411001</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="48">
+      <c r="AB20">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>1234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8">
         <v>123456</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O21" s="11">
-        <v>45386</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="3" t="s">
+      <c r="R21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="12">
+        <v>791102</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA21" t="s">
         <v>41</v>
       </c>
-      <c r="T21" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="12">
-        <v>791102</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
         <v>102</v>
       </c>
-      <c r="AB21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="48">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>1234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8">
         <v>123456</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
         <v>3</v>
       </c>
-      <c r="M22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O22" s="11">
-        <v>45386</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="3" t="s">
+      <c r="R22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22">
+        <v>123456765445434</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22">
+        <v>411001</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s">
         <v>41</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AB22">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
         <v>105</v>
       </c>
-      <c r="U22">
-        <v>123456765445434</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y22">
-        <v>411001</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="60">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>1234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>123456</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O23" s="11">
-        <v>45386</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="3" t="s">
+      <c r="R23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23">
+        <v>411001</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23">
-        <v>411001</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="48">
+      <c r="AB23">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>1234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8">
         <v>123456</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="1">
+        <v>108</v>
+      </c>
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O24" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O24" s="11">
-        <v>45386</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="3" t="s">
+      <c r="R24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24">
+        <v>411001</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s">
         <v>41</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24">
-        <v>411001</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="48">
+      <c r="AB24">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>1234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8">
         <v>123456</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
         <v>2</v>
       </c>
-      <c r="M25" t="s">
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O25" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O25" s="11">
-        <v>45386</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S25" s="3" t="s">
+      <c r="R25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>92</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25">
+        <v>8149214985</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25">
+        <v>411001</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s">
         <v>41</v>
       </c>
-      <c r="T25" t="s">
-        <v>93</v>
-      </c>
-      <c r="V25" s="1" t="s">
+      <c r="AB25">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
         <v>112</v>
       </c>
-      <c r="W25">
-        <v>8149214985</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25">
-        <v>411001</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="48">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>1234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8">
         <v>123456</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O26" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="11">
-        <v>45386</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>96</v>
+      </c>
+      <c r="T26">
+        <v>123456765445434</v>
+      </c>
+      <c r="V26">
+        <v>8149214985</v>
+      </c>
+      <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" s="1">
+        <v>791113</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
         <v>116</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T26" t="s">
-        <v>97</v>
-      </c>
-      <c r="U26">
-        <v>123456765445434</v>
-      </c>
-      <c r="W26">
-        <v>8149214985</v>
-      </c>
-      <c r="X26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>791113</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="48">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>1234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
         <v>2</v>
       </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O27" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O27" s="11">
-        <v>45386</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="3" t="s">
+      <c r="R27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s">
+        <v>118</v>
+      </c>
+      <c r="U27" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27">
+        <v>411001</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s">
         <v>41</v>
       </c>
-      <c r="T27" t="s">
-        <v>119</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="AB27">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" t="s">
         <v>120</v>
       </c>
-      <c r="Y27">
-        <v>411001</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="48">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>1234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F28" s="8">
         <v>123456</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O28" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O28" s="11">
-        <v>45386</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="3" t="s">
+      <c r="R28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28">
+        <v>656765</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
         <v>41</v>
       </c>
-      <c r="W28">
-        <v>656765</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="48">
+      <c r="AB28">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>1234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8">
         <v>123456</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="1">
-        <v>1</v>
+      <c r="L29" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O29" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O29" s="11">
-        <v>45386</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s">
         <v>41</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="48">
+      <c r="AB29">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>1234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="8">
         <v>123456</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="1">
-        <v>1</v>
+      <c r="L30" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="11">
+        <v>45386</v>
+      </c>
+      <c r="O30" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="O30" s="11">
-        <v>45386</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s">
         <v>41</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="AB30">
+        <v>5686249819</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
-      <c r="I31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="S31" s="3"/>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" ht="14.25">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
-      <c r="I32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="2:19">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" ht="14.25">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
-      <c r="I33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="S33" s="3"/>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" ht="14.25">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
-      <c r="I34" s="1"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="S34" s="3"/>
-    </row>
-    <row r="35" spans="2:19" ht="14.25">
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" ht="14.25">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
-      <c r="I35" s="1"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="S35" s="3"/>
-    </row>
-    <row r="36" spans="2:19" ht="14.25">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" ht="14.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
-      <c r="I36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="S36" s="3"/>
-    </row>
-    <row r="37" spans="2:19" ht="14.25">
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" ht="14.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
-      <c r="I37" s="1"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="S37" s="3"/>
-    </row>
-    <row r="38" spans="2:19" ht="14.25">
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" ht="14.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
-      <c r="I38" s="1"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" spans="2:19" ht="14.25">
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" ht="14.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
-      <c r="I39" s="1"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" ht="14.25">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" ht="14.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
-      <c r="I40" s="1"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" ht="14.25">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" ht="14.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
-      <c r="I41" s="1"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="S41" s="3"/>
-    </row>
-    <row r="42" spans="2:19" ht="14.25">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" ht="14.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
-      <c r="I42" s="1"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="S42" s="3"/>
-    </row>
-    <row r="43" spans="2:19" ht="14.25">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" ht="14.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
-      <c r="I43" s="1"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="S43" s="3"/>
-    </row>
-    <row r="44" spans="2:19" ht="14.25">
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" ht="14.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
-      <c r="I44" s="1"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="S44" s="3"/>
-    </row>
-    <row r="45" spans="2:19" ht="14.25">
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" ht="14.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
-      <c r="I45" s="1"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="2:19" ht="14.25">
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" ht="14.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
-      <c r="I46" s="1"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="S46" s="3"/>
-    </row>
-    <row r="47" spans="2:19" ht="14.25">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" ht="14.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
-      <c r="I47" s="1"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="S47" s="3"/>
-    </row>
-    <row r="48" spans="2:19" ht="14.25">
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" ht="14.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
-      <c r="I48" s="1"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="S48" s="3"/>
-    </row>
-    <row r="49" spans="2:19" ht="14.25">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" ht="14.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
-      <c r="I49" s="1"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="S49" s="3"/>
-    </row>
-    <row r="50" spans="2:19" ht="14.25">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" ht="14.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
-      <c r="I50" s="1"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="S50" s="3"/>
-    </row>
-    <row r="51" spans="2:19" ht="14.25">
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" ht="14.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-      <c r="I51" s="1"/>
+      <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="S51" s="3"/>
-    </row>
-    <row r="52" spans="2:19" ht="14.25">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" ht="14.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
-      <c r="I52" s="1"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="S52" s="3"/>
-    </row>
-    <row r="53" spans="2:19" ht="14.25">
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" ht="14.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
-      <c r="I53" s="1"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="S53" s="3"/>
-    </row>
-    <row r="54" spans="2:19" ht="14.25">
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" ht="14.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
-      <c r="I54" s="1"/>
+      <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="S54" s="3"/>
-    </row>
-    <row r="55" spans="2:19" ht="14.25">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" ht="14.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
-      <c r="I55" s="1"/>
+      <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="2:19" ht="14.25">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" ht="14.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
-      <c r="I56" s="1"/>
+      <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="2:19" ht="14.25">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" ht="14.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
-      <c r="I57" s="1"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="S57" s="3"/>
-    </row>
-    <row r="58" spans="2:19" ht="14.25">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" ht="14.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="S58" s="3"/>
-    </row>
-    <row r="59" spans="2:19" ht="14.25">
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" ht="14.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="S59" s="3"/>
-    </row>
-    <row r="60" spans="2:19" ht="14.25">
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" ht="14.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="S60" s="3"/>
-    </row>
-    <row r="61" spans="2:19" ht="14.25">
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" ht="14.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="S61" s="3"/>
-    </row>
-    <row r="62" spans="2:19" ht="14.25">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" ht="14.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="S62" s="3"/>
-    </row>
-    <row r="63" spans="2:19" ht="14.25">
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" ht="14.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="S63" s="3"/>
+      <c r="R63" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7479166" right="0.7479166" top="0.9840278" bottom="0.9840278" header="0.5118055" footer="0.5118055"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/TestData/Production/Web_POS/Order/customer_tagging_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/customer_tagging_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\REPORTS\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,6 +72,9 @@
     <t>group</t>
   </si>
   <si>
+    <t>edited_group</t>
+  </si>
+  <si>
     <t>tax_invoice</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
   </si>
   <si>
     <t>QBSB-any____qty-Getpool-Anyqty-Free</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
   <si>
     <t>TC_08</t>
@@ -897,8 +903,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" topLeftCell="J1">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -915,13 +921,15 @@
     <col min="10" max="11" width="31.95703" style="1" customWidth="1"/>
     <col min="12" max="13" width="28.75" customWidth="1"/>
     <col min="14" max="16" width="19.09766" customWidth="1"/>
-    <col min="17" max="18" width="29.45703" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.20703" customWidth="1"/>
-    <col min="20" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="28.75" customWidth="1"/>
-    <col min="23" max="27" width="12.67969" customWidth="1"/>
-    <col min="28" max="28" width="12.67969" customWidth="1"/>
-    <col min="29" max="1024" width="12.67969" customWidth="1"/>
+    <col min="17" max="17" width="29.45703" style="1" customWidth="1"/>
+    <col min="18" max="18" width="29.45703" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.45703" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.20703" customWidth="1"/>
+    <col min="21" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="28.75" customWidth="1"/>
+    <col min="24" max="28" width="12.67969" customWidth="1"/>
+    <col min="29" max="29" width="12.67969" customWidth="1"/>
+    <col min="30" max="1025" width="12.67969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -976,10 +984,10 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -994,49 +1002,52 @@
       <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="8">
         <v>123456</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1045,84 +1056,85 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="11">
         <v>45386</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2">
         <v>5686249819</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8">
-        <v>123456</v>
+        <v>1234</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1131,84 +1143,85 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="11">
         <v>45386</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3">
         <v>7896325874</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="8">
-        <v>123456</v>
+        <v>1234</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1217,84 +1230,85 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="11">
         <v>45386</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4">
         <v>7896325874</v>
       </c>
     </row>
     <row r="5" ht="34.6" customHeight="1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>1234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>123456</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1303,84 +1317,85 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="11">
         <v>45386</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5">
+        <v>41</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5">
         <v>411001</v>
       </c>
-      <c r="Y5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5">
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5">
         <v>5684569185</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>1234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
         <v>123456</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1389,84 +1404,85 @@
         <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6" s="11">
         <v>45386</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6">
         <v>5686249819</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>1234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="8">
         <v>123456</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1475,84 +1491,85 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" s="11">
         <v>45386</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB7">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7">
         <v>5686249819</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>1234</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8">
         <v>123456</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1561,84 +1578,87 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8" s="11">
         <v>45386</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="S8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8">
         <v>5686249819</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>1234</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="8">
         <v>123456</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1647,84 +1667,85 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9" s="11">
         <v>45386</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9">
         <v>5686249819</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>1234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8">
         <v>123456</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1733,84 +1754,85 @@
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" s="11">
         <v>45386</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10">
+        <v>41</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10">
         <v>9876543212</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10">
         <v>5686249819</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>1234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8">
         <v>123456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1819,84 +1841,85 @@
         <v>2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" s="11">
         <v>45386</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11">
         <v>5686249819</v>
       </c>
     </row>
     <row r="12" ht="28.5">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>1234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8">
         <v>123456</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1905,167 +1928,169 @@
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N12" s="11">
         <v>45386</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R12" s="1"/>
       <c r="S12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12">
         <v>5686249819</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>1234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8">
         <v>123456</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N13" s="11">
         <v>45386</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S13" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>40</v>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13">
         <v>411001</v>
       </c>
-      <c r="Y13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB13">
+        <v>41</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13">
         <v>5686249819</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>1234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="8">
         <v>123456</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2074,81 +2099,82 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N14" s="11">
         <v>45386</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S14" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>40</v>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X14">
+        <v>41</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14">
         <v>411001</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB14">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14">
         <v>5686249819</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>1234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8">
         <v>123456</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2157,75 +2183,76 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N15" s="11">
         <v>45386</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" t="s">
-        <v>73</v>
-      </c>
-      <c r="V15">
+        <v>40</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15">
         <v>9876543212</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>411001</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15">
         <v>5686249819</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>1234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2234,75 +2261,76 @@
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16" s="11">
         <v>45386</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16">
+      <c r="R16" s="1"/>
+      <c r="S16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16">
         <v>9876543212</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>411001</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB16">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16">
         <v>5686249819</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>1234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="8">
         <v>123456</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2311,75 +2339,76 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" s="11">
         <v>45386</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17">
+      <c r="R17" s="1"/>
+      <c r="S17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17">
         <v>9876543212</v>
       </c>
-      <c r="W17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>40</v>
+      <c r="X17" t="s">
+        <v>86</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB17">
+        <v>41</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17">
         <v>5686249819</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>1234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8">
         <v>123456</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2388,75 +2417,76 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N18" s="11">
         <v>45386</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S18" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18">
+      <c r="R18" s="1"/>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18">
         <v>9876543212</v>
       </c>
-      <c r="W18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>40</v>
+      <c r="X18" t="s">
+        <v>75</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18">
+        <v>41</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18">
         <v>5686249819</v>
       </c>
     </row>
     <row r="19" ht="25.5">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>1234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8">
         <v>123456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2465,84 +2495,85 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N19" s="11">
         <v>45386</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T19" t="s">
+        <v>94</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19">
+        <v>76</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19">
         <v>8149214985</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X19">
+      <c r="X19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19">
         <v>411001</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19">
+        <v>41</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19">
         <v>5686249819</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>1234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8">
         <v>123456</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2551,84 +2582,85 @@
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N20" s="11">
         <v>45386</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" t="s">
-        <v>96</v>
-      </c>
-      <c r="T20" s="12">
-        <v>123456789876543</v>
+        <v>40</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
+        <v>98</v>
       </c>
       <c r="U20" s="12">
         <v>123456789876543</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="12">
+        <v>123456789876543</v>
+      </c>
+      <c r="W20">
         <v>8149214985</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X20">
+      <c r="X20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20">
         <v>411001</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB20">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC20">
         <v>5686249819</v>
       </c>
     </row>
     <row r="21" ht="25.5">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>1234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="8">
         <v>123456</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2637,79 +2669,80 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N21" s="11">
         <v>45386</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S21" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X21" s="12">
+      <c r="R21" s="1"/>
+      <c r="S21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="12">
         <v>791102</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>101</v>
+      <c r="Z21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AA21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB21">
+        <v>103</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC21">
         <v>5686249819</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>1234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="8">
         <v>123456</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2718,78 +2751,79 @@
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N22" s="11">
         <v>45386</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S22" t="s">
-        <v>104</v>
-      </c>
-      <c r="T22">
+      <c r="R22" s="1"/>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22">
         <v>123456765445434</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X22">
+      <c r="X22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22">
         <v>411001</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB22">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC22">
         <v>5686249819</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>1234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8">
         <v>123456</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2798,143 +2832,145 @@
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N23" s="11">
         <v>45386</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X23">
+      <c r="R23" s="1"/>
+      <c r="S23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23">
         <v>411001</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB23">
+        <v>41</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23">
         <v>5686249819</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>1234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="8">
         <v>123456</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N24" s="11">
         <v>45386</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X24">
+      <c r="R24" s="1"/>
+      <c r="S24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24">
         <v>411001</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB24">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24">
         <v>5686249819</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>1234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" s="8">
         <v>123456</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2943,81 +2979,82 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N25" s="11">
         <v>45386</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S25" t="s">
-        <v>92</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V25">
+      <c r="R25" s="1"/>
+      <c r="S25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W25">
         <v>8149214985</v>
       </c>
-      <c r="W25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X25">
+      <c r="X25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25">
         <v>411001</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25">
+        <v>41</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC25">
         <v>5686249819</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>1234</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="8">
         <v>123456</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -3026,81 +3063,82 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N26" s="11">
         <v>45386</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S26" t="s">
-        <v>96</v>
-      </c>
-      <c r="T26">
+      <c r="R26" s="1"/>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26">
         <v>123456765445434</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>8149214985</v>
       </c>
-      <c r="W26" t="s">
-        <v>84</v>
-      </c>
-      <c r="X26" s="1">
+      <c r="X26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y26" s="1">
         <v>791113</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB26">
+        <v>41</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26">
         <v>5686249819</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>1234</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -3109,75 +3147,76 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N27" s="11">
         <v>45386</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S27" t="s">
-        <v>118</v>
-      </c>
-      <c r="U27" t="s">
-        <v>119</v>
-      </c>
-      <c r="X27">
+      <c r="R27" s="1"/>
+      <c r="S27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>120</v>
+      </c>
+      <c r="V27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y27">
         <v>411001</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27">
+        <v>41</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27">
         <v>5686249819</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>1234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="8">
         <v>123456</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -3186,69 +3225,70 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N28" s="11">
         <v>45386</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V28">
+      <c r="R28" s="1"/>
+      <c r="S28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28">
         <v>656765</v>
       </c>
-      <c r="Y28" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="Z28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB28">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC28">
         <v>5686249819</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>1234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="8">
         <v>123456</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -3257,84 +3297,85 @@
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N29" s="11">
         <v>45386</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R29" s="1"/>
       <c r="S29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB29">
+        <v>41</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29">
         <v>5686249819</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>1234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" s="8">
         <v>123456</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -3343,54 +3384,55 @@
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N30" s="11">
         <v>45386</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="R30" s="1"/>
       <c r="S30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB30">
+        <v>41</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC30">
         <v>5686249819</v>
       </c>
     </row>
@@ -3405,7 +3447,8 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="1"/>
@@ -3418,7 +3461,8 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="1"/>
@@ -3431,7 +3475,8 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="1"/>
@@ -3442,7 +3487,8 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="3"/>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="1"/>
@@ -3453,7 +3499,8 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="3"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="1"/>
@@ -3465,7 +3512,8 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="3"/>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="2"/>
@@ -3476,7 +3524,8 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="3"/>
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="2"/>
@@ -3487,7 +3536,8 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="3"/>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="2"/>
@@ -3498,7 +3548,8 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="3"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="2"/>
@@ -3509,7 +3560,8 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="R40" s="3"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="3"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="2"/>
@@ -3520,7 +3572,8 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="R41" s="3"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="3"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="2"/>
@@ -3531,7 +3584,8 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="R42" s="3"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="3"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2"/>
@@ -3542,7 +3596,8 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="R43" s="3"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="3"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -3553,7 +3608,8 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="R44" s="3"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="3"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>
@@ -3564,7 +3620,8 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="R45" s="3"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="3"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="2"/>
@@ -3575,7 +3632,8 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="R46" s="3"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="3"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="2"/>
@@ -3586,7 +3644,8 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="R47" s="3"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="3"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="2"/>
@@ -3597,7 +3656,8 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="R48" s="3"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="3"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="2"/>
@@ -3608,7 +3668,8 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="R49" s="3"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="3"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="2"/>
@@ -3619,7 +3680,8 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="3"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="2"/>
@@ -3630,7 +3692,8 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="R51" s="3"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="3"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="2"/>
@@ -3641,7 +3704,8 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="R52" s="3"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="3"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="2"/>
@@ -3652,7 +3716,8 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="R53" s="3"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="3"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="2"/>
@@ -3663,7 +3728,8 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="R54" s="3"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="3"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="2"/>
@@ -3674,7 +3740,8 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="R55" s="3"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="3"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="2"/>
@@ -3685,7 +3752,8 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="R56" s="3"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="2"/>
@@ -3696,7 +3764,8 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="R57" s="3"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="3"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="2"/>
@@ -3707,7 +3776,8 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="R58" s="3"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="3"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="2"/>
@@ -3718,7 +3788,8 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="R59" s="3"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="3"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="2"/>
@@ -3729,7 +3800,8 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="R60" s="3"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="3"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="2"/>
@@ -3740,7 +3812,8 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="3"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="2"/>
@@ -3751,7 +3824,8 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="3"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="2"/>
@@ -3762,7 +3836,8 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="R63" s="3"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
